--- a/doc/examination_report.xlsx
+++ b/doc/examination_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lwj/university/course2021-2022/Project/examination_report/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66F9A12-E0B2-5F4D-9294-931AC548D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC242FF-947B-7F4C-BE38-2A60D9B7BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17380" xr2:uid="{F455941F-6D65-D948-B708-AF575754B7A2}"/>
   </bookViews>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>administrator</t>
   </si>
   <si>
-    <t>RUL(Authority)</t>
-  </si>
-  <si>
     <t>Student</t>
   </si>
   <si>
@@ -107,6 +104,84 @@
   </si>
   <si>
     <t>examination_report</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>URL(Authority) Permission</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>role_type</t>
+  </si>
+  <si>
+    <t>i1uhdi7ue4yri</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>fu948uyfoi4h</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>authority_id</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>uehy938yr938</t>
+  </si>
+  <si>
+    <t>URL bla bla bla</t>
+  </si>
+  <si>
+    <t>user_role_id</t>
+  </si>
+  <si>
+    <t>ey934yfr948yf</t>
+  </si>
+  <si>
+    <t>j0495u0g49uj</t>
+  </si>
+  <si>
+    <t>jt5408u5goi</t>
+  </si>
+  <si>
+    <t>0485ug0485u</t>
+  </si>
+  <si>
+    <t>user_module_id</t>
+  </si>
+  <si>
+    <t>93874y9r83yur</t>
+  </si>
+  <si>
+    <t>module_id</t>
+  </si>
+  <si>
+    <t>f93485y93y</t>
+  </si>
+  <si>
+    <t>grade_id</t>
+  </si>
+  <si>
+    <t>jf4098u59t84u</t>
+  </si>
+  <si>
+    <t>5u9t485u9t</t>
+  </si>
+  <si>
+    <t>uf489ug958ug</t>
   </si>
 </sst>
 </file>
@@ -145,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -177,11 +252,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -197,6 +309,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73107E83-08D8-064B-A95B-29AE28CE7907}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
@@ -529,133 +650,135 @@
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -663,17 +786,183 @@
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="1">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1">
+        <v>997</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
